--- a/共同研修課題_画面設計.xlsx
+++ b/共同研修課題_画面設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A104C9-8D82-40FF-9A8E-EF0D75E995BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A6992-E807-4B32-9134-44E975946939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11850" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11850" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="224">
   <si>
     <t>課題4</t>
   </si>
@@ -665,6 +665,288 @@
     <t>商品名</t>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>・日付は2024/04/01の形を統一形として、</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>入力時には2024-4-1や2024-04-08 , 2024-04-8のような形を許す</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ユル</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>日付が有効であるかを確認し、統一形に修正入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>シュウセイニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・顧客番号、顧客姓、名は半角スペース区切りでコンボボックス表示</t>
+    <rPh sb="1" eb="5">
+      <t>コキャクバンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・商品名は商品コード、商品名を半角スペース区切りでコンボボックス表示</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・単価は商品を選んでセルを抜ける際に自動入力</t>
+    <rPh sb="1" eb="3">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>数量が入力されていれば金額と付与ポイントの更新処理を実行</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・数量は手入力　単価が入っていれば、金額と付与ポイント更新処理を実行</t>
+    <rPh sb="1" eb="3">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>コウシンショリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・大分類はここでは表示させない。</t>
+    <rPh sb="1" eb="4">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・支店番号、支店名は半角スペース区切りでコンボボックス表示</t>
+    <rPh sb="1" eb="5">
+      <t>シテンバンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・付与ポイントは自動更新</t>
+    <rPh sb="1" eb="3">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジドウコウシン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・行を抜ける際に全項目が入力されているかどうかを確認する。</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・行を抜けるときにokだったら背景色を戻す</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・入力されていなかったら、メッセージボックスを出してセルの色を変えて、選択行に戻す。</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>センタクギョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>・行単位でのリセットボタンほしいかも？</t>
+    <rPh sb="1" eb="4">
+      <t>ギョウタンイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -673,7 +955,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +1049,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -807,8 +1103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1029,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1178,14 +1474,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1221,6 +1509,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8386,12 +8689,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1962150" cy="1466850"/>
+    <xdr:ext cx="1962150" cy="1647825"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="66" name="Shape 66" title="図形描画">
@@ -8405,10 +8708,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2743200" y="1895475"/>
-          <a:ext cx="1962150" cy="1466850"/>
-          <a:chOff x="3062175" y="820600"/>
-          <a:chExt cx="3082200" cy="2291750"/>
+          <a:off x="2047875" y="1981200"/>
+          <a:ext cx="1962150" cy="1647825"/>
+          <a:chOff x="3062175" y="537852"/>
+          <a:chExt cx="3082200" cy="2574498"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8496,9 +8799,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3532500" y="820600"/>
-            <a:ext cx="1180800" cy="1110900"/>
+          <a:xfrm flipH="1">
+            <a:off x="4713300" y="537852"/>
+            <a:ext cx="278990" cy="1393648"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8522,7 +8825,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="638175" cy="381000"/>
@@ -8588,11 +8891,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136715</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6057900" cy="1228725"/>
+    <xdr:ext cx="6057900" cy="911034"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 66" title="図形描画">
@@ -8606,10 +8909,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5210175" y="2076450"/>
-          <a:ext cx="6057900" cy="1228725"/>
-          <a:chOff x="2326575" y="2731838"/>
-          <a:chExt cx="6039000" cy="1205400"/>
+          <a:off x="4781550" y="3518090"/>
+          <a:ext cx="6057900" cy="911034"/>
+          <a:chOff x="1899287" y="4080703"/>
+          <a:chExt cx="6039000" cy="893740"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8625,7 +8928,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2326575" y="3622838"/>
+            <a:off x="1899287" y="4080703"/>
             <a:ext cx="6039000" cy="314400"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -8669,7 +8972,19 @@
                 <a:cs typeface="Calibri"/>
                 <a:sym typeface="Calibri"/>
               </a:rPr>
-              <a:t>登録ボタンを押したら、下の表示画面の一番上の行に追加されるようにする。色付ける</a:t>
+              <a:t>登録ボタンを押したら、</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>１０行の内、入力されている欄をデータベースへ挿入</a:t>
             </a:r>
             <a:endParaRPr sz="1400"/>
           </a:p>
@@ -8685,13 +9000,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:endCxn id="107" idx="0"/>
+            <a:endCxn id="106" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4723275" y="2731838"/>
-            <a:ext cx="622800" cy="891000"/>
+          <a:xfrm flipH="1">
+            <a:off x="4391799" y="4339038"/>
+            <a:ext cx="388447" cy="635405"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8711,6 +9026,252 @@
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346A93B0-26C6-4DE7-8A5F-E78E57FA9D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4429125" y="1962150"/>
+          <a:ext cx="1962150" cy="1276351"/>
+          <a:chOff x="4429125" y="1962150"/>
+          <a:chExt cx="1962150" cy="1276351"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Shape 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E90D25A-5607-44C9-9DA9-9D66DAB9C6D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429125" y="2724151"/>
+            <a:ext cx="1962150" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>プルダウンで表示</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Shape 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934F40D3-7790-4864-B3B9-B14FE6B4E818}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4924425" y="1962150"/>
+            <a:ext cx="514351" cy="834864"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1D2A1B-FBEF-4398-920F-C01AEF78D3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10382250" y="1933575"/>
+          <a:ext cx="1962150" cy="1276351"/>
+          <a:chOff x="4429125" y="1962150"/>
+          <a:chExt cx="1962150" cy="1276351"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Shape 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BB14CB-45FC-4C95-8CF6-0981E9D44EB1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429125" y="2724151"/>
+            <a:ext cx="1962150" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>プルダウンで表示</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Shape 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414B4DA4-B98A-48E4-BA57-9B4AE7769CA5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4924425" y="1962150"/>
+            <a:ext cx="514351" cy="834864"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10795,7 +11356,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2819400" y="2105025"/>
+          <a:off x="2819400" y="2247900"/>
           <a:ext cx="1962150" cy="1466850"/>
           <a:chOff x="3062175" y="820600"/>
           <a:chExt cx="3082200" cy="2291750"/>
@@ -39768,15 +40329,15 @@
     </row>
     <row r="2" spans="12:18" ht="18.75" customHeight="1">
       <c r="L2" s="28"/>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="85"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="29"/>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="85"/>
+      <c r="Q2" s="81"/>
       <c r="R2" s="30"/>
     </row>
     <row r="3" spans="12:18" ht="18.75" customHeight="1">
@@ -39811,10 +40372,10 @@
       <c r="M6" s="31"/>
       <c r="N6" s="33"/>
       <c r="O6" s="32"/>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="88"/>
+      <c r="Q6" s="84"/>
       <c r="R6" s="33"/>
     </row>
     <row r="7" spans="12:18" ht="18.75" customHeight="1">
@@ -42887,7 +43448,7 @@
     </row>
     <row r="29" spans="19:32" ht="18.75" customHeight="1">
       <c r="T29" s="2"/>
-      <c r="U29" s="89" t="s">
+      <c r="U29" s="85" t="s">
         <v>3</v>
       </c>
       <c r="V29" s="49" t="s">
@@ -42908,7 +43469,7 @@
     </row>
     <row r="30" spans="19:32" ht="18.75" customHeight="1">
       <c r="T30" s="2"/>
-      <c r="U30" s="90"/>
+      <c r="U30" s="86"/>
       <c r="V30" s="49" t="s">
         <v>176</v>
       </c>
@@ -44004,7 +44565,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="3:16">
+    <row r="38" spans="3:16" ht="18.75">
       <c r="C38" s="37" t="s">
         <v>161</v>
       </c>
@@ -44048,7 +44609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="3:16" ht="18.75">
       <c r="C39" s="52" t="s">
         <v>164</v>
       </c>
@@ -44271,10 +44832,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:R41"/>
+  <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -44309,20 +44870,32 @@
     <row r="4" spans="1:18">
       <c r="B4" s="60"/>
       <c r="Q4" s="61"/>
+      <c r="R4" s="88" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="60"/>
       <c r="Q5" s="61"/>
+      <c r="R5" s="89" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="60"/>
       <c r="Q6" s="61"/>
+      <c r="R6" s="89" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="60"/>
       <c r="Q7" s="61"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18.75">
       <c r="B8" s="60"/>
       <c r="C8" s="62"/>
       <c r="D8" s="3"/>
@@ -44339,8 +44912,11 @@
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="61"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="R8" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18.75">
       <c r="B9" s="60"/>
       <c r="C9" s="63" t="s">
         <v>161</v>
@@ -44369,10 +44945,10 @@
       <c r="K9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="91" t="s">
         <v>193</v>
       </c>
       <c r="N9" s="65" t="s">
@@ -44385,8 +44961,11 @@
         <v>196</v>
       </c>
       <c r="Q9" s="61"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18.75">
       <c r="B10" s="60"/>
       <c r="C10" s="63" t="s">
         <v>161</v>
@@ -44415,10 +44994,10 @@
       <c r="K10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="91" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="65" t="s">
@@ -44431,37 +45010,40 @@
         <v>124</v>
       </c>
       <c r="Q10" s="61"/>
+      <c r="R10" s="89" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="B11" s="60"/>
-      <c r="C11" s="68" t="s">
-        <v>164</v>
+      <c r="C11" s="65">
+        <v>1</v>
       </c>
       <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="69"/>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
       <c r="Q11" s="61"/>
-      <c r="R11" s="51" t="s">
-        <v>198</v>
+      <c r="R11" s="90" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="62"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="65">
-        <v>1</v>
-      </c>
-      <c r="D12" s="73"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="69"/>
       <c r="E12" s="16"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -44469,19 +45051,22 @@
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
       <c r="Q12" s="61"/>
+      <c r="R12" s="87" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
       <c r="B13" s="60"/>
       <c r="C13" s="65">
-        <v>2</v>
-      </c>
-      <c r="D13" s="73"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="69"/>
       <c r="E13" s="16"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -44489,19 +45074,22 @@
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
       <c r="Q13" s="61"/>
+      <c r="R13" s="87" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="65">
-        <v>3</v>
-      </c>
-      <c r="D14" s="73"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="69"/>
       <c r="E14" s="16"/>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -44509,19 +45097,22 @@
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
       <c r="Q14" s="61"/>
+      <c r="R14" s="87" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
       <c r="B15" s="60"/>
       <c r="C15" s="65">
-        <v>4</v>
-      </c>
-      <c r="D15" s="73"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="69"/>
       <c r="E15" s="16"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -44529,19 +45120,19 @@
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
       <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1">
       <c r="B16" s="60"/>
       <c r="C16" s="65">
-        <v>5</v>
-      </c>
-      <c r="D16" s="73"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="69"/>
       <c r="E16" s="16"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -44549,19 +45140,22 @@
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
       <c r="Q16" s="61"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1">
+      <c r="R16" s="87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="15" customHeight="1">
       <c r="B17" s="60"/>
       <c r="C17" s="65">
-        <v>6</v>
-      </c>
-      <c r="D17" s="73"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="69"/>
       <c r="E17" s="16"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
@@ -44569,19 +45163,22 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
       <c r="Q17" s="61"/>
-    </row>
-    <row r="18" spans="2:17" ht="18.75">
+      <c r="R17" s="87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="18.75">
       <c r="B18" s="60"/>
       <c r="C18" s="65">
-        <v>7</v>
-      </c>
-      <c r="D18" s="73"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="69"/>
       <c r="E18" s="16"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -44589,19 +45186,22 @@
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
       <c r="Q18" s="61"/>
-    </row>
-    <row r="19" spans="2:17" ht="18.75">
+      <c r="R18" s="87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="18.75">
       <c r="B19" s="60"/>
       <c r="C19" s="65">
-        <v>8</v>
-      </c>
-      <c r="D19" s="73"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="69"/>
       <c r="E19" s="16"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
@@ -44609,19 +45209,20 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
       <c r="Q19" s="61"/>
-    </row>
-    <row r="20" spans="2:17" ht="18.75">
+      <c r="R19" s="87"/>
+    </row>
+    <row r="20" spans="2:18" ht="18.75">
       <c r="B20" s="60"/>
       <c r="C20" s="65">
-        <v>9</v>
-      </c>
-      <c r="D20" s="73"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="69"/>
       <c r="E20" s="16"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
@@ -44629,92 +45230,87 @@
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
       <c r="Q20" s="61"/>
     </row>
-    <row r="21" spans="2:17" ht="18.75">
+    <row r="21" spans="2:18">
       <c r="B21" s="60"/>
-      <c r="C21" s="65">
-        <v>10</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
       <c r="Q21" s="61"/>
-    </row>
-    <row r="22" spans="2:17">
+      <c r="R21" s="87" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22" s="60"/>
       <c r="Q22" s="61"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:18">
       <c r="B23" s="60"/>
       <c r="Q23" s="61"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:18">
       <c r="B24" s="60"/>
       <c r="Q24" s="61"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:18">
       <c r="B25" s="60"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
       <c r="Q25" s="61"/>
     </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="76"/>
-    </row>
-    <row r="30" spans="2:17" ht="18.75">
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-    </row>
-    <row r="31" spans="2:17" ht="18.75">
-      <c r="K31" s="78" t="s">
+    <row r="26" spans="2:18">
+      <c r="B26" s="70"/>
+      <c r="Q26" s="72"/>
+    </row>
+    <row r="29" spans="2:18" ht="15" customHeight="1">
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+    </row>
+    <row r="30" spans="2:18" ht="18.75">
+      <c r="K30" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
-    </row>
-    <row r="32" spans="2:17" ht="18.75">
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+    </row>
+    <row r="31" spans="2:18" ht="18.75">
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="77"/>
+    </row>
+    <row r="32" spans="2:18" ht="18.75">
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="81"/>
+      <c r="P32" s="77"/>
     </row>
     <row r="33" spans="11:16" ht="18.75">
       <c r="K33" s="32"/>
@@ -44722,7 +45318,7 @@
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
       <c r="O33" s="32"/>
-      <c r="P33" s="81"/>
+      <c r="P33" s="77"/>
     </row>
     <row r="34" spans="11:16" ht="18.75">
       <c r="K34" s="32"/>
@@ -44730,7 +45326,7 @@
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
-      <c r="P34" s="81"/>
+      <c r="P34" s="77"/>
     </row>
     <row r="35" spans="11:16" ht="18.75">
       <c r="K35" s="32"/>
@@ -44738,7 +45334,7 @@
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
-      <c r="P35" s="81"/>
+      <c r="P35" s="77"/>
     </row>
     <row r="36" spans="11:16" ht="18.75">
       <c r="K36" s="32"/>
@@ -44746,7 +45342,7 @@
       <c r="M36" s="32"/>
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
-      <c r="P36" s="81"/>
+      <c r="P36" s="77"/>
     </row>
     <row r="37" spans="11:16" ht="18.75">
       <c r="K37" s="32"/>
@@ -44754,7 +45350,7 @@
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
       <c r="O37" s="32"/>
-      <c r="P37" s="81"/>
+      <c r="P37" s="32"/>
     </row>
     <row r="38" spans="11:16" ht="18.75">
       <c r="K38" s="32"/>
@@ -44780,18 +45376,11 @@
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
     </row>
-    <row r="41" spans="11:16" ht="18.75">
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -44802,7 +45391,7 @@
   </sheetPr>
   <dimension ref="B2:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -44852,7 +45441,7 @@
       <c r="B7" s="60"/>
       <c r="Q7" s="61"/>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:26" ht="18.75">
       <c r="B8" s="60"/>
       <c r="C8" s="62"/>
       <c r="D8" s="3"/>
@@ -44877,7 +45466,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" ht="18.75">
       <c r="B10" s="60"/>
       <c r="C10" s="63" t="s">
         <v>161</v>
@@ -44925,11 +45514,11 @@
       <c r="X10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="82" t="s">
+      <c r="Y10" s="78" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" ht="18.75">
       <c r="B11" s="60"/>
       <c r="C11" s="63" t="s">
         <v>161</v>
@@ -44980,7 +45569,7 @@
       <c r="X11" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="Y11" s="83" t="s">
+      <c r="Y11" s="79" t="s">
         <v>202</v>
       </c>
     </row>
@@ -44989,7 +45578,7 @@
       <c r="C12" s="65">
         <v>1</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="16"/>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -44999,14 +45588,14 @@
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
       <c r="Q12" s="61"/>
       <c r="X12" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="Y12" s="83" t="s">
+      <c r="Y12" s="79" t="s">
         <v>203</v>
       </c>
     </row>
@@ -45015,7 +45604,7 @@
       <c r="C13" s="65">
         <v>2</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="16"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -45025,9 +45614,9 @@
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
       <c r="Q13" s="61"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1">
@@ -45035,7 +45624,7 @@
       <c r="C14" s="65">
         <v>3</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="16"/>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -45045,9 +45634,9 @@
       <c r="K14" s="43"/>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
       <c r="Q14" s="61"/>
       <c r="Y14" s="63" t="s">
         <v>204</v>
@@ -45061,7 +45650,7 @@
       <c r="C15" s="65">
         <v>4</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="16"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -45071,22 +45660,22 @@
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
       <c r="Q15" s="61"/>
-      <c r="X15" s="83" t="s">
+      <c r="X15" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
     </row>
     <row r="16" spans="2:26" ht="15" customHeight="1">
       <c r="B16" s="60"/>
       <c r="C16" s="65">
         <v>6</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="16"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -45096,9 +45685,9 @@
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
       <c r="M16" s="43"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
       <c r="Q16" s="61"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1">
@@ -45106,7 +45695,7 @@
       <c r="C17" s="65">
         <v>7</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="16"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
@@ -45116,9 +45705,9 @@
       <c r="K17" s="43"/>
       <c r="L17" s="43"/>
       <c r="M17" s="43"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
       <c r="Q17" s="61"/>
     </row>
     <row r="18" spans="2:17" ht="18.75">
@@ -45126,7 +45715,7 @@
       <c r="C18" s="65">
         <v>8</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="16"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -45136,9 +45725,9 @@
       <c r="K18" s="43"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
       <c r="Q18" s="61"/>
     </row>
     <row r="19" spans="2:17" ht="18.75">
@@ -45146,7 +45735,7 @@
       <c r="C19" s="65">
         <v>9</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="16"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
@@ -45156,9 +45745,9 @@
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
       <c r="Q19" s="61"/>
     </row>
     <row r="20" spans="2:17" ht="18.75">
@@ -45166,7 +45755,7 @@
       <c r="C20" s="65">
         <v>10</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="16"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
@@ -45176,9 +45765,9 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
       <c r="Q20" s="61"/>
     </row>
     <row r="21" spans="2:17">
@@ -45194,22 +45783,22 @@
       <c r="Q23" s="61"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="72"/>
     </row>
     <row r="26" spans="2:17" ht="18.75">
       <c r="K26" s="32"/>
@@ -45217,7 +45806,7 @@
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
-      <c r="P26" s="81"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" spans="2:17" ht="18.75">
       <c r="K27" s="32"/>
@@ -45225,7 +45814,7 @@
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="81"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="2:17" ht="18.75">
       <c r="K28" s="32"/>
@@ -45233,7 +45822,7 @@
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
-      <c r="P28" s="81"/>
+      <c r="P28" s="77"/>
     </row>
     <row r="29" spans="2:17" ht="18.75">
       <c r="K29" s="32"/>
@@ -45241,7 +45830,7 @@
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
       <c r="O29" s="32"/>
-      <c r="P29" s="81"/>
+      <c r="P29" s="77"/>
     </row>
     <row r="30" spans="2:17" ht="18.75">
       <c r="K30" s="32"/>
@@ -45249,7 +45838,7 @@
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="81"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="2:17" ht="18.75">
       <c r="K31" s="32"/>
@@ -45257,7 +45846,7 @@
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
-      <c r="P31" s="81"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="2:17" ht="18.75">
       <c r="K32" s="32"/>

--- a/共同研修課題_画面設計.xlsx
+++ b/共同研修課題_画面設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A6992-E807-4B32-9134-44E975946939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F5B83-3D9E-428A-914A-4DDCC5972266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11850" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="3075" windowWidth="16200" windowHeight="9270" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題4" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,17 @@
     <sheet name="受注入力" sheetId="6" r:id="rId6"/>
     <sheet name="売上データ参照画面" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="nQu5TFz/L2mFlv8mkphPALFg13xX2/3pqneoh8PVKmQ="/>
     </ext>
@@ -513,9 +522,6 @@
     <t>売上</t>
   </si>
   <si>
-    <t>登録完了なのだ　Byずんだもん音声</t>
-  </si>
-  <si>
     <t>行</t>
   </si>
   <si>
@@ -646,9 +652,6 @@
   </si>
   <si>
     <t>下限</t>
-  </si>
-  <si>
-    <t>上限</t>
   </si>
   <si>
     <t>年月日</t>
@@ -947,6 +950,43 @@
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>登録完了なのだ　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>By</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ずんだもん音声</t>
+    </r>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -955,7 +995,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1084,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1325,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1494,6 +1542,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1509,21 +1576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9481,9 +9533,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7038975" cy="5476875"/>
     <xdr:grpSp>
@@ -9499,7 +9551,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14954250" y="104775"/>
+          <a:off x="14094279" y="200025"/>
           <a:ext cx="7038975" cy="5476875"/>
           <a:chOff x="2496699" y="620450"/>
           <a:chExt cx="7019951" cy="5459052"/>
@@ -11238,7 +11290,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13039725" y="733425"/>
+          <a:off x="13076464" y="733425"/>
           <a:ext cx="1914525" cy="628650"/>
           <a:chOff x="3582550" y="2361675"/>
           <a:chExt cx="1891500" cy="610425"/>
@@ -11356,7 +11408,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2819400" y="2247900"/>
+          <a:off x="2820761" y="2268311"/>
           <a:ext cx="1962150" cy="1466850"/>
           <a:chOff x="3062175" y="820600"/>
           <a:chExt cx="3082200" cy="2291750"/>
@@ -40329,15 +40381,15 @@
     </row>
     <row r="2" spans="12:18" ht="18.75" customHeight="1">
       <c r="L2" s="28"/>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="81"/>
+      <c r="N2" s="90"/>
       <c r="O2" s="29"/>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="81"/>
+      <c r="Q2" s="90"/>
       <c r="R2" s="30"/>
     </row>
     <row r="3" spans="12:18" ht="18.75" customHeight="1">
@@ -40372,10 +40424,10 @@
       <c r="M6" s="31"/>
       <c r="N6" s="33"/>
       <c r="O6" s="32"/>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="84"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="33"/>
     </row>
     <row r="7" spans="12:18" ht="18.75" customHeight="1">
@@ -41422,7 +41474,7 @@
   <dimension ref="S1:AF1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -41430,7 +41482,7 @@
     <col min="1" max="18" width="8.7109375" customWidth="1"/>
     <col min="19" max="19" width="4.140625" customWidth="1"/>
     <col min="20" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" customWidth="1"/>
     <col min="24" max="24" width="13.42578125" customWidth="1"/>
     <col min="25" max="27" width="10.140625" customWidth="1"/>
     <col min="28" max="28" width="12.140625" customWidth="1"/>
@@ -41444,8 +41496,8 @@
     <row r="4" spans="19:32" ht="18.75" customHeight="1"/>
     <row r="5" spans="19:32" ht="18.75" customHeight="1"/>
     <row r="6" spans="19:32" ht="18.75" customHeight="1">
-      <c r="S6" s="27" t="s">
-        <v>160</v>
+      <c r="S6" s="87" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="19:32" ht="18.75" customHeight="1"/>
@@ -41453,7 +41505,7 @@
     <row r="9" spans="19:32" ht="18.75" customHeight="1"/>
     <row r="10" spans="19:32" ht="18.75" customHeight="1">
       <c r="S10" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T10" s="37" t="s">
         <v>3</v>
@@ -41489,30 +41541,30 @@
         <v>13</v>
       </c>
       <c r="AE10" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF10" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="AF10" s="37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="19:32" ht="18.75" customHeight="1">
       <c r="S11" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T11" s="39">
         <v>10001</v>
       </c>
       <c r="U11" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="V11" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="W11" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="40" t="s">
+      <c r="X11" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="X11" s="41" t="s">
-        <v>168</v>
       </c>
       <c r="Y11" s="39" t="s">
         <v>28</v>
@@ -41521,7 +41573,7 @@
         <v>29</v>
       </c>
       <c r="AA11" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB11" s="39" t="s">
         <v>22</v>
@@ -41533,7 +41585,7 @@
         <v>301</v>
       </c>
       <c r="AE11" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF11" s="42">
         <v>30000</v>
@@ -41577,7 +41629,7 @@
         <v>301</v>
       </c>
       <c r="AE12" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF12" s="44">
         <v>300</v>
@@ -41621,7 +41673,7 @@
         <v>202</v>
       </c>
       <c r="AE13" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF13" s="44">
         <v>400</v>
@@ -41665,7 +41717,7 @@
         <v>908</v>
       </c>
       <c r="AE14" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF14" s="44">
         <v>500</v>
@@ -41709,7 +41761,7 @@
         <v>1102</v>
       </c>
       <c r="AE15" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF15" s="44">
         <v>600</v>
@@ -41732,7 +41784,7 @@
         <v>51</v>
       </c>
       <c r="X16" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y16" s="43" t="s">
         <v>19</v>
@@ -41753,7 +41805,7 @@
         <v>403</v>
       </c>
       <c r="AE16" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF16" s="44">
         <v>70000</v>
@@ -41797,7 +41849,7 @@
         <v>201</v>
       </c>
       <c r="AE17" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF17" s="44">
         <v>900</v>
@@ -41908,10 +41960,10 @@
         <v>13</v>
       </c>
       <c r="AE23" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF23" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="AF23" s="37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="19:32" ht="18.75" customHeight="1">
@@ -42942,7 +42994,7 @@
     <row r="9" spans="19:32" ht="18.75" customHeight="1"/>
     <row r="10" spans="19:32" ht="18.75" customHeight="1">
       <c r="S10" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T10" s="37" t="s">
         <v>3</v>
@@ -42978,30 +43030,30 @@
         <v>13</v>
       </c>
       <c r="AE10" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF10" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="AF10" s="37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="19:32" ht="18.75" customHeight="1">
       <c r="S11" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T11" s="39">
         <v>10001</v>
       </c>
       <c r="U11" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="V11" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="W11" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="40" t="s">
+      <c r="X11" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="X11" s="41" t="s">
-        <v>168</v>
       </c>
       <c r="Y11" s="39" t="s">
         <v>28</v>
@@ -43010,7 +43062,7 @@
         <v>29</v>
       </c>
       <c r="AA11" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB11" s="39" t="s">
         <v>22</v>
@@ -43022,7 +43074,7 @@
         <v>301</v>
       </c>
       <c r="AE11" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF11" s="42">
         <v>30000</v>
@@ -43066,7 +43118,7 @@
         <v>301</v>
       </c>
       <c r="AE12" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF12" s="44">
         <v>300</v>
@@ -43110,7 +43162,7 @@
         <v>202</v>
       </c>
       <c r="AE13" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF13" s="44">
         <v>400</v>
@@ -43154,7 +43206,7 @@
         <v>908</v>
       </c>
       <c r="AE14" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF14" s="44">
         <v>500</v>
@@ -43198,7 +43250,7 @@
         <v>1102</v>
       </c>
       <c r="AE15" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF15" s="44">
         <v>600</v>
@@ -43221,7 +43273,7 @@
         <v>51</v>
       </c>
       <c r="X16" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y16" s="43" t="s">
         <v>19</v>
@@ -43242,7 +43294,7 @@
         <v>403</v>
       </c>
       <c r="AE16" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF16" s="44">
         <v>70000</v>
@@ -43286,7 +43338,7 @@
         <v>201</v>
       </c>
       <c r="AE17" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF17" s="44">
         <v>900</v>
@@ -43397,10 +43449,10 @@
         <v>13</v>
       </c>
       <c r="AE23" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF23" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="AF23" s="37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="19:32" ht="18.75" customHeight="1">
@@ -43420,7 +43472,7 @@
     <row r="25" spans="19:32" ht="18.75" customHeight="1"/>
     <row r="26" spans="19:32" ht="18.75" customHeight="1">
       <c r="W26" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X26" s="37" t="s">
         <v>8</v>
@@ -43448,14 +43500,14 @@
     </row>
     <row r="29" spans="19:32" ht="18.75" customHeight="1">
       <c r="T29" s="2"/>
-      <c r="U29" s="85" t="s">
+      <c r="U29" s="94" t="s">
         <v>3</v>
       </c>
       <c r="V29" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="W29" s="50" t="s">
         <v>174</v>
-      </c>
-      <c r="W29" s="50" t="s">
-        <v>175</v>
       </c>
       <c r="X29" s="37" t="s">
         <v>8</v>
@@ -43469,9 +43521,9 @@
     </row>
     <row r="30" spans="19:32" ht="18.75" customHeight="1">
       <c r="T30" s="2"/>
-      <c r="U30" s="86"/>
+      <c r="U30" s="95"/>
       <c r="V30" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W30" s="50"/>
       <c r="X30" s="45"/>
@@ -43488,31 +43540,31 @@
     <row r="32" spans="19:32" ht="18.75" customHeight="1">
       <c r="T32" s="2"/>
       <c r="U32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="20:22" ht="18.75" customHeight="1">
       <c r="T33" s="2"/>
       <c r="U33" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="20:22" ht="18.75" customHeight="1">
       <c r="T34" s="2"/>
       <c r="U34" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="20:22" ht="18.75" customHeight="1">
       <c r="T35" s="2"/>
       <c r="U35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="20:22" ht="18.75" customHeight="1">
       <c r="T36" s="2"/>
       <c r="U36" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="20:22" ht="18.75" customHeight="1">
@@ -43522,64 +43574,64 @@
     <row r="38" spans="20:22" ht="18.75" customHeight="1">
       <c r="T38" s="2"/>
       <c r="U38" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="V38" s="27" t="s">
         <v>182</v>
-      </c>
-      <c r="V38" s="27" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="20:22" ht="18.75" customHeight="1">
       <c r="U39" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="V39" s="27" t="s">
         <v>184</v>
-      </c>
-      <c r="V39" s="27" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="40" spans="20:22" ht="18.75" customHeight="1">
       <c r="U40" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V40" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="20:22" ht="18.75" customHeight="1">
       <c r="U41" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V41" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="20:22" ht="18.75" customHeight="1">
       <c r="U42" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V42" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="20:22" ht="18.75" customHeight="1">
       <c r="U43" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V43" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="20:22" ht="18.75" customHeight="1">
       <c r="U44" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V44" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="20:22" ht="18.75" customHeight="1"/>
     <row r="46" spans="20:22" ht="18.75" customHeight="1">
       <c r="U46" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="20:22" ht="18.75" customHeight="1"/>
@@ -44562,12 +44614,12 @@
   <sheetData>
     <row r="36" spans="3:16">
       <c r="D36" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="3:16" ht="18.75">
       <c r="C38" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
@@ -44603,15 +44655,15 @@
         <v>13</v>
       </c>
       <c r="O38" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="P38" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="P38" s="37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="3:16" ht="18.75">
       <c r="C39" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15" customHeight="1">
@@ -44622,16 +44674,16 @@
         <v>10001</v>
       </c>
       <c r="E40" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="G40" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="H40" s="55" t="s">
         <v>167</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>168</v>
       </c>
       <c r="I40" s="53" t="s">
         <v>28</v>
@@ -44640,7 +44692,7 @@
         <v>29</v>
       </c>
       <c r="K40" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L40" s="53" t="s">
         <v>22</v>
@@ -44652,7 +44704,7 @@
         <v>301</v>
       </c>
       <c r="O40" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P40" s="56">
         <v>30000</v>
@@ -44834,8 +44886,8 @@
   </sheetPr>
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -44870,29 +44922,29 @@
     <row r="4" spans="1:18">
       <c r="B4" s="60"/>
       <c r="Q4" s="61"/>
-      <c r="R4" s="88" t="s">
-        <v>209</v>
+      <c r="R4" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="60"/>
       <c r="Q5" s="61"/>
-      <c r="R5" s="89" t="s">
-        <v>210</v>
+      <c r="R5" s="82" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="60"/>
       <c r="Q6" s="61"/>
-      <c r="R6" s="89" t="s">
-        <v>211</v>
+      <c r="R6" s="82" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="60"/>
       <c r="Q7" s="61"/>
-      <c r="R7" s="89" t="s">
-        <v>212</v>
+      <c r="R7" s="82" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75">
@@ -44912,14 +44964,14 @@
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="61"/>
-      <c r="R8" s="89" t="s">
-        <v>213</v>
+      <c r="R8" s="82" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18.75">
       <c r="B9" s="60"/>
       <c r="C9" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>115</v>
@@ -44945,30 +44997,30 @@
       <c r="K9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="L9" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="N9" s="65" t="s">
+      <c r="O9" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="P9" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="P9" s="65" t="s">
-        <v>196</v>
-      </c>
       <c r="Q9" s="61"/>
-      <c r="R9" s="89" t="s">
-        <v>214</v>
+      <c r="R9" s="82" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.75">
       <c r="B10" s="60"/>
       <c r="C10" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>122</v>
@@ -44994,14 +45046,14 @@
       <c r="K10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="91" t="s">
+      <c r="M10" s="84" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O10" s="65" t="s">
         <v>123</v>
@@ -45010,8 +45062,8 @@
         <v>124</v>
       </c>
       <c r="Q10" s="61"/>
-      <c r="R10" s="89" t="s">
-        <v>215</v>
+      <c r="R10" s="82" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
@@ -45027,14 +45079,14 @@
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
       <c r="N11" s="69"/>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
       <c r="Q11" s="61"/>
-      <c r="R11" s="90" t="s">
-        <v>216</v>
+      <c r="R11" s="83" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
@@ -45051,14 +45103,14 @@
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
       <c r="N12" s="69"/>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="87" t="s">
-        <v>217</v>
+      <c r="R12" s="80" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
@@ -45074,14 +45126,14 @@
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="69"/>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
       <c r="Q13" s="61"/>
-      <c r="R13" s="87" t="s">
-        <v>218</v>
+      <c r="R13" s="80" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
@@ -45097,14 +45149,14 @@
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
       <c r="Q14" s="61"/>
-      <c r="R14" s="87" t="s">
-        <v>219</v>
+      <c r="R14" s="80" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
@@ -45120,8 +45172,8 @@
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="69"/>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -45140,14 +45192,14 @@
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="69"/>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
       <c r="Q16" s="61"/>
-      <c r="R16" s="87" t="s">
-        <v>220</v>
+      <c r="R16" s="80" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1">
@@ -45163,14 +45215,14 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
       <c r="P17" s="69"/>
       <c r="Q17" s="61"/>
-      <c r="R17" s="87" t="s">
-        <v>222</v>
+      <c r="R17" s="80" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="18.75">
@@ -45186,14 +45238,14 @@
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
       <c r="N18" s="69"/>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
       <c r="Q18" s="61"/>
-      <c r="R18" s="87" t="s">
-        <v>221</v>
+      <c r="R18" s="80" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="18.75">
@@ -45209,13 +45261,13 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
       <c r="N19" s="69"/>
       <c r="O19" s="69"/>
       <c r="P19" s="69"/>
       <c r="Q19" s="61"/>
-      <c r="R19" s="87"/>
+      <c r="R19" s="80"/>
     </row>
     <row r="20" spans="2:18" ht="18.75">
       <c r="B20" s="60"/>
@@ -45230,8 +45282,8 @@
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
       <c r="N20" s="69"/>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
@@ -45240,8 +45292,8 @@
     <row r="21" spans="2:18">
       <c r="B21" s="60"/>
       <c r="Q21" s="61"/>
-      <c r="R21" s="87" t="s">
-        <v>223</v>
+      <c r="R21" s="80" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:18">
@@ -45288,7 +45340,7 @@
     </row>
     <row r="30" spans="2:18" ht="18.75">
       <c r="K30" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L30" s="75"/>
       <c r="M30" s="75"/>
@@ -45391,8 +45443,8 @@
   </sheetPr>
   <dimension ref="B2:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -45401,6 +45453,9 @@
     <col min="2" max="3" width="3.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" customWidth="1"/>
+    <col min="25" max="26" width="15.85546875" customWidth="1"/>
+    <col min="27" max="30" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26">
@@ -45463,28 +45518,28 @@
       <c r="B9" s="60"/>
       <c r="Q9" s="61"/>
       <c r="X9" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="18.75">
       <c r="B10" s="60"/>
       <c r="C10" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G10" s="64" t="s">
         <v>117</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>119</v>
@@ -45499,29 +45554,29 @@
         <v>67</v>
       </c>
       <c r="M10" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="O10" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="P10" s="65" t="s">
         <v>195</v>
-      </c>
-      <c r="P10" s="65" t="s">
-        <v>196</v>
       </c>
       <c r="Q10" s="61"/>
       <c r="X10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="Y10" s="78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="18.75">
       <c r="B11" s="60"/>
       <c r="C11" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>122</v>
@@ -45554,7 +45609,7 @@
         <v>123</v>
       </c>
       <c r="N11" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O11" s="65" t="s">
         <v>123</v>
@@ -45564,13 +45619,13 @@
       </c>
       <c r="Q11" s="61"/>
       <c r="R11" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X11" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y11" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1">
@@ -45593,10 +45648,10 @@
       <c r="P12" s="69"/>
       <c r="Q12" s="61"/>
       <c r="X12" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y12" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1">
@@ -45639,10 +45694,10 @@
       <c r="P14" s="69"/>
       <c r="Q14" s="61"/>
       <c r="Y14" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z14" s="63" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="Z14" s="88" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="15" customHeight="1">

--- a/共同研修課題_画面設計.xlsx
+++ b/共同研修課題_画面設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\しぶや\Desktop\ProjectC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F5B83-3D9E-428A-914A-4DDCC5972266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9BBEFD-19DD-44C3-8386-F4793BB874CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="3075" windowWidth="16200" windowHeight="9270" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9990" yWindow="1170" windowWidth="8085" windowHeight="10140" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題4" sheetId="1" r:id="rId1"/>
@@ -45443,8 +45443,8 @@
   </sheetPr>
   <dimension ref="B2:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y23:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
